--- a/ExperimentalData/Straight wire EMF/Straight wire initial estimates.xlsx
+++ b/ExperimentalData/Straight wire EMF/Straight wire initial estimates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Calculations for the straight wire inductor experiment</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Source: http://www.ee.scu.edu/eefac/healy/indwire.html</t>
+  </si>
+  <si>
+    <t>Capacitance/2 (μF)</t>
+  </si>
+  <si>
+    <t>Measurement resistor (Ω):</t>
+  </si>
+  <si>
+    <t>Equipment Set Up</t>
   </si>
 </sst>
 </file>
@@ -95,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -191,8 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,14 +223,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,147 +507,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L20"/>
+  <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C8/(2*C7)</f>
+        <v>1.6410256410256409E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SQRT(1+C9*C9)</f>
+        <v>1.0000000134648257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <f>2*C7*(LN((1+C10)/C9)+C6/4-C10+C9)</f>
+        <v>844.18719558593477</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C11*10^-9</f>
+        <v>8.4418719558593486E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <f>2*C7*(LN(2*C7/C8)-0.75)</f>
+        <v>776.58934613775023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
-        <f>C8/(2*C7)</f>
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6">
-        <f>SQRT(1+C9*C9)</f>
-        <v>1.0000003199999488</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <f>2*C7*(LN((1+C10)/C9)+C6/4-C10+C9)</f>
-        <v>141.49691701712609</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
-        <f>C11*10^-9</f>
-        <v>1.4149691701712611E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <f>2*C7*(LN(2*C7/C8)-0.75)</f>
-        <v>127.61797660592693</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5">
-        <v>200000</v>
+      <c r="C19" s="2">
+        <v>100000</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <f>1/((C19*2*PI())^2)/C12</f>
-        <v>4.4754148084227498E-6</v>
+        <v>3.0005543845051042E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <f>C20*10^6*0.5</f>
+        <v>1.5002771922525522</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>33.36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="B3:G3"/>
